--- a/燃料油/eta/新加坡0.5%低硫燃料油裂解价差_月度数据.xlsx
+++ b/燃料油/eta/新加坡0.5%低硫燃料油裂解价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C3" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4">
